--- a/Fulminante_G2.xlsx
+++ b/Fulminante_G2.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninadicostanzopereira/Desktop/Fulminante/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F0D496B-28F5-FA46-99C8-F60BACEF360A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E689D51-E02B-F44A-A3F0-254B15C9E63A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16120" xr2:uid="{BA68849B-0336-0B48-ADFD-D71275B61065}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" activeTab="1" xr2:uid="{BA68849B-0336-0B48-ADFD-D71275B61065}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="32">
   <si>
     <t>countrycode</t>
   </si>
@@ -60,6 +62,78 @@
   </si>
   <si>
     <t>Argentine Peso</t>
+  </si>
+  <si>
+    <t>Y_T</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>Y_n</t>
+  </si>
+  <si>
+    <t>C_T1</t>
+  </si>
+  <si>
+    <t>C_T0</t>
+  </si>
+  <si>
+    <t>TCR_t</t>
+  </si>
+  <si>
+    <t>r*</t>
+  </si>
+  <si>
+    <t>Y_T1</t>
+  </si>
+  <si>
+    <t>Y_T0</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>shock</t>
+  </si>
+  <si>
+    <t>var</t>
+  </si>
+  <si>
+    <t>se aprecia el tcr</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>acá entra petrol</t>
+  </si>
+  <si>
+    <t>petro</t>
+  </si>
+  <si>
+    <t>expo sanjuan</t>
+  </si>
+  <si>
+    <t>expo san juan prom</t>
+  </si>
+  <si>
+    <t>qué porcentaje de Y_T es expo:100%</t>
+  </si>
+  <si>
+    <t>VM</t>
+  </si>
+  <si>
+    <t>CHUBU</t>
+  </si>
+  <si>
+    <t>Y_T*</t>
+  </si>
+  <si>
+    <t>San juan_nuevo mil millones</t>
   </si>
 </sst>
 </file>
@@ -88,12 +162,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -108,10 +188,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,7 +530,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AAADD90-CBBC-9045-9D29-E6E11923E6CD}">
   <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1662,4 +1746,1184 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF24FD65-4C97-FD4E-BD76-B113811CAFC3}">
+  <dimension ref="A1:L67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1">
+        <f>SUM(C6:C19)</f>
+        <v>16.621500000000001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2023</v>
+      </c>
+      <c r="B2">
+        <f>646*0.2</f>
+        <v>129.20000000000002</v>
+      </c>
+      <c r="F2">
+        <f>B2+C2</f>
+        <v>129.20000000000002</v>
+      </c>
+      <c r="I2">
+        <f>24*9.4</f>
+        <v>225.60000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2024</v>
+      </c>
+      <c r="B3">
+        <f>$B$2</f>
+        <v>129.20000000000002</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F29" si="0">B3+C3</f>
+        <v>129.20000000000002</v>
+      </c>
+      <c r="J3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2025</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B29" si="1">$B$2</f>
+        <v>129.20000000000002</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>129.20000000000002</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4">
+        <v>2024</v>
+      </c>
+      <c r="K4">
+        <v>710</v>
+      </c>
+      <c r="L4">
+        <f>AVERAGE(K4:K6)</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2026</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="1"/>
+        <v>129.20000000000002</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>129.20000000000002</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5">
+        <v>2025</v>
+      </c>
+      <c r="K5">
+        <v>1025</v>
+      </c>
+      <c r="L5">
+        <f>L4</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2027</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="1"/>
+        <v>129.20000000000002</v>
+      </c>
+      <c r="C6">
+        <f>L7/1000</f>
+        <v>1.1872499999999999</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>130.38725000000002</v>
+      </c>
+      <c r="J6">
+        <v>2026</v>
+      </c>
+      <c r="K6">
+        <v>1262</v>
+      </c>
+      <c r="L6">
+        <f>L4</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2028</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="1"/>
+        <v>129.20000000000002</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:C19" si="2">L8/1000</f>
+        <v>1.1872499999999999</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>130.38725000000002</v>
+      </c>
+      <c r="J7">
+        <v>2027</v>
+      </c>
+      <c r="K7">
+        <v>1656</v>
+      </c>
+      <c r="L7">
+        <f>AVERAGE(K7:K10)-$L$4</f>
+        <v>1187.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2029</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="1"/>
+        <v>129.20000000000002</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="2"/>
+        <v>1.1872499999999999</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>130.38725000000002</v>
+      </c>
+      <c r="I8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8">
+        <v>2028</v>
+      </c>
+      <c r="K8">
+        <v>1893</v>
+      </c>
+      <c r="L8">
+        <f>$L$7</f>
+        <v>1187.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2030</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>129.20000000000002</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="2"/>
+        <v>1.1872499999999999</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>130.38725000000002</v>
+      </c>
+      <c r="J9">
+        <v>2029</v>
+      </c>
+      <c r="K9">
+        <v>2447</v>
+      </c>
+      <c r="L9">
+        <f t="shared" ref="L9:L20" si="3">$L$7</f>
+        <v>1187.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2031</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>129.20000000000002</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="2"/>
+        <v>1.1872499999999999</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>130.38725000000002</v>
+      </c>
+      <c r="J10">
+        <v>2030</v>
+      </c>
+      <c r="K10">
+        <v>2749</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="3"/>
+        <v>1187.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2032</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="1"/>
+        <v>129.20000000000002</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="2"/>
+        <v>1.1872499999999999</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>130.38725000000002</v>
+      </c>
+      <c r="J11">
+        <v>2031</v>
+      </c>
+      <c r="K11">
+        <v>2749</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="3"/>
+        <v>1187.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2033</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="1"/>
+        <v>129.20000000000002</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="2"/>
+        <v>1.1872499999999999</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>130.38725000000002</v>
+      </c>
+      <c r="J12">
+        <v>2032</v>
+      </c>
+      <c r="K12">
+        <v>2749</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="3"/>
+        <v>1187.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2034</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="1"/>
+        <v>129.20000000000002</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="2"/>
+        <v>1.1872499999999999</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>130.38725000000002</v>
+      </c>
+      <c r="J13">
+        <v>2033</v>
+      </c>
+      <c r="K13">
+        <v>2749</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="3"/>
+        <v>1187.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2035</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="1"/>
+        <v>129.20000000000002</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="2"/>
+        <v>1.1872499999999999</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>130.38725000000002</v>
+      </c>
+      <c r="J14">
+        <v>2034</v>
+      </c>
+      <c r="K14">
+        <v>2749</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="3"/>
+        <v>1187.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2036</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>129.20000000000002</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="2"/>
+        <v>1.1872499999999999</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>130.38725000000002</v>
+      </c>
+      <c r="J15">
+        <v>2035</v>
+      </c>
+      <c r="K15">
+        <v>2749</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="3"/>
+        <v>1187.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2037</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>129.20000000000002</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="2"/>
+        <v>1.1872499999999999</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>130.38725000000002</v>
+      </c>
+      <c r="J16">
+        <v>2036</v>
+      </c>
+      <c r="K16">
+        <v>2749</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="3"/>
+        <v>1187.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2038</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>129.20000000000002</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="2"/>
+        <v>1.1872499999999999</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>130.38725000000002</v>
+      </c>
+      <c r="J17">
+        <v>2037</v>
+      </c>
+      <c r="K17">
+        <v>2749</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="3"/>
+        <v>1187.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2039</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="1"/>
+        <v>129.20000000000002</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="2"/>
+        <v>1.1872499999999999</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>130.38725000000002</v>
+      </c>
+      <c r="J18">
+        <v>2038</v>
+      </c>
+      <c r="K18">
+        <v>2749</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="3"/>
+        <v>1187.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2040</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="1"/>
+        <v>129.20000000000002</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="2"/>
+        <v>1.1872499999999999</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>130.38725000000002</v>
+      </c>
+      <c r="J19">
+        <v>2039</v>
+      </c>
+      <c r="K19">
+        <v>2749</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="3"/>
+        <v>1187.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2041</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="1"/>
+        <v>129.20000000000002</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>129.20000000000002</v>
+      </c>
+      <c r="J20">
+        <v>2040</v>
+      </c>
+      <c r="K20">
+        <v>2749</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="3"/>
+        <v>1187.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2042</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="1"/>
+        <v>129.20000000000002</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>129.20000000000002</v>
+      </c>
+      <c r="J21">
+        <v>2041</v>
+      </c>
+      <c r="L21">
+        <f>$L$4</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2043</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="1"/>
+        <v>129.20000000000002</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>129.20000000000002</v>
+      </c>
+      <c r="J22">
+        <v>2042</v>
+      </c>
+      <c r="L22">
+        <f t="shared" ref="L22:L67" si="4">$L$4</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2044</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="1"/>
+        <v>129.20000000000002</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>129.20000000000002</v>
+      </c>
+      <c r="J23">
+        <v>2043</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="4"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2045</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="1"/>
+        <v>129.20000000000002</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>129.20000000000002</v>
+      </c>
+      <c r="J24">
+        <v>2044</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="4"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2046</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="1"/>
+        <v>129.20000000000002</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>129.20000000000002</v>
+      </c>
+      <c r="J25">
+        <v>2045</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="4"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2047</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="1"/>
+        <v>129.20000000000002</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>129.20000000000002</v>
+      </c>
+      <c r="J26">
+        <v>2046</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="4"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2048</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="1"/>
+        <v>129.20000000000002</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>129.20000000000002</v>
+      </c>
+      <c r="J27">
+        <v>2047</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="4"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2049</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="1"/>
+        <v>129.20000000000002</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>129.20000000000002</v>
+      </c>
+      <c r="J28">
+        <v>2048</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="4"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2050</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="1"/>
+        <v>129.20000000000002</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>129.20000000000002</v>
+      </c>
+      <c r="J29">
+        <v>2049</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="4"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J30">
+        <v>2050</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="4"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J31">
+        <v>2051</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="4"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J32">
+        <v>2052</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="4"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="33" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J33">
+        <v>2053</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="4"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="34" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J34">
+        <v>2054</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="4"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="35" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J35">
+        <v>2055</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="4"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="36" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J36">
+        <v>2056</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="4"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="37" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J37">
+        <v>2057</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="4"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="38" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J38">
+        <v>2058</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="4"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="39" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J39">
+        <v>2059</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="4"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="40" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J40">
+        <v>2060</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="4"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="41" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J41">
+        <v>2061</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="4"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="42" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J42">
+        <v>2062</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="4"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="43" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J43">
+        <v>2063</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="4"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="44" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J44">
+        <v>2064</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="4"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="45" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J45">
+        <v>2065</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="4"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="46" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J46">
+        <v>2066</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="4"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="47" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J47">
+        <v>2067</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="4"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="48" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J48">
+        <v>2068</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="4"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="49" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J49">
+        <v>2069</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="4"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="50" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J50">
+        <v>2070</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="4"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="51" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J51">
+        <v>2071</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="4"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="52" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J52">
+        <v>2072</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="4"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="53" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J53">
+        <v>2073</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="4"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="54" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J54">
+        <v>2074</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="4"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="55" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J55">
+        <v>2075</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="4"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="56" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J56">
+        <v>2076</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="4"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="57" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J57">
+        <v>2077</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="4"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="58" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J58">
+        <v>2078</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="4"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="59" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J59">
+        <v>2079</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="4"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="60" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J60">
+        <v>2080</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="4"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="61" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J61">
+        <v>2081</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="4"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="62" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J62">
+        <v>2082</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="4"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="63" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J63">
+        <v>2083</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="4"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="64" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J64">
+        <v>2084</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="4"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="65" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J65">
+        <v>2085</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="4"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="66" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J66">
+        <v>2086</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="4"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="67" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J67">
+        <v>2087</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="4"/>
+        <v>999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BCF1124-B71F-F444-8562-A81F8B514218}">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView zoomScale="175" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2">
+        <v>0.04</v>
+      </c>
+      <c r="E2">
+        <v>0.2</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <f>(D2/(1+D2))*((B2)/(1+D2))</f>
+        <v>7.3964497041420121E-2</v>
+      </c>
+      <c r="I2">
+        <f>(D2/(1+D2))*((A2)/(1+D2))</f>
+        <v>3.6982248520710061E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <f>(E2/(1-E2))*(H2/G2)^(-F2)</f>
+        <v>1142.4399999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <f>(E2/(1-E2))*(I2/G2)^(-F2)</f>
+        <v>4569.7599999999993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <f>(B7-B8)/B8</f>
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>